--- a/DataInfo/Teachers.xlsx
+++ b/DataInfo/Teachers.xlsx
@@ -432,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,7 +443,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -492,7 +492,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>222222</v>
       </c>
       <c r="D2" t="s">
@@ -507,7 +507,7 @@
       <c r="G2" s="1">
         <v>27064</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>17938259642</v>
       </c>
       <c r="I2" t="s">
@@ -521,7 +521,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>222222</v>
       </c>
       <c r="D3" t="s">
@@ -536,7 +536,7 @@
       <c r="G3" s="1">
         <v>29570</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>16828563795</v>
       </c>
       <c r="I3" t="s">
@@ -550,7 +550,7 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>222222</v>
       </c>
       <c r="D4" t="s">
@@ -565,7 +565,7 @@
       <c r="G4" s="1">
         <v>28331</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>13593682972</v>
       </c>
       <c r="I4" t="s">
